--- a/document/docs/pg0001/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0001/アプリケーション詳細設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\docs\pg0001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5E984-E64C-4E39-8203-4E6790BADA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304177-89EF-4A1A-9088-6966AA3C0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -540,6 +540,13 @@
     <t>main.py</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -768,10 +775,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,23 +2481,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2499,6 +2489,23 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9CCDD2-0A8C-4305-8840-DD01C56B8EC0}">
   <dimension ref="B2:CS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
@@ -3884,18 +3891,33 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AS5:CS9"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="C15:F15"/>
@@ -3912,35 +3934,20 @@
     <mergeCell ref="C7:O7"/>
     <mergeCell ref="P7:AR7"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
     <mergeCell ref="X13:AN13"/>
     <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6038,6 +6045,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -6062,118 +6181,6 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6184,18 +6191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
   <dimension ref="B2:CP53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
@@ -6248,7 +6255,7 @@
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
@@ -6301,7 +6308,7 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6354,12 +6361,12 @@
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
     </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -6406,31 +6413,8 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-      <c r="AP10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-    </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6471,29 +6455,8 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-    </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6534,29 +6497,8 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-    </row>
-    <row r="13" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6597,29 +6539,8 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
-    </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6660,29 +6581,8 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-    </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6723,29 +6623,8 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-    </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6786,27 +6665,6 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
@@ -6990,7 +6848,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
       <c r="AP25" s="10" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
@@ -7281,93 +7139,93 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14"/>
-      <c r="BR34" s="14"/>
-      <c r="BS34" s="14"/>
-      <c r="BT34" s="14"/>
-      <c r="BU34" s="14"/>
-      <c r="BV34" s="14"/>
-      <c r="BW34" s="14"/>
-      <c r="BX34" s="14"/>
-      <c r="BY34" s="14"/>
-      <c r="BZ34" s="14"/>
-      <c r="CA34" s="14"/>
-      <c r="CB34" s="14"/>
-      <c r="CC34" s="14"/>
-      <c r="CD34" s="14"/>
-      <c r="CE34" s="14"/>
-      <c r="CF34" s="14"/>
-      <c r="CG34" s="14"/>
-      <c r="CH34" s="14"/>
-      <c r="CI34" s="14"/>
-      <c r="CJ34" s="14"/>
-      <c r="CK34" s="14"/>
-      <c r="CL34" s="14"/>
-      <c r="CM34" s="14"/>
-      <c r="CN34" s="14"/>
-      <c r="CO34" s="14"/>
-      <c r="CP34" s="14"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="15"/>
+      <c r="BW34" s="15"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="15"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="15"/>
     </row>
     <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
@@ -7704,22 +7562,22 @@
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
-      <c r="AQ44" s="15" t="s">
+      <c r="AQ44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AR44" s="15"/>
-      <c r="AS44" s="15"/>
-      <c r="AT44" s="15"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="15"/>
-      <c r="AW44" s="15"/>
-      <c r="AX44" s="15"/>
-      <c r="AY44" s="15"/>
-      <c r="AZ44" s="15"/>
-      <c r="BA44" s="15"/>
-      <c r="BB44" s="15"/>
-      <c r="BC44" s="15"/>
-      <c r="BD44" s="15"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BC44" s="14"/>
+      <c r="BD44" s="14"/>
       <c r="CP44" s="5"/>
     </row>
     <row r="45" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7758,20 +7616,20 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
-      <c r="AQ45" s="15"/>
-      <c r="AR45" s="15"/>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="15"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
-      <c r="AW45" s="15"/>
-      <c r="AX45" s="15"/>
-      <c r="AY45" s="15"/>
-      <c r="AZ45" s="15"/>
-      <c r="BA45" s="15"/>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="14"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="14"/>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8003,21 +7861,44 @@
       <c r="CP53" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="AC44:AP45"/>
-    <mergeCell ref="AQ44:BD45"/>
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AQ43:BD43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:AB43"/>
-    <mergeCell ref="K39:AX39"/>
-    <mergeCell ref="K40:AX40"/>
-    <mergeCell ref="AC43:AP43"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
+  <mergeCells count="67">
+    <mergeCell ref="K49:AX49"/>
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="T10:AO10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="T11:AO11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:AO12"/>
+    <mergeCell ref="K44:N45"/>
+    <mergeCell ref="O44:AB45"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:AO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="P20:AK20"/>
+    <mergeCell ref="AL20:BF20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P21:AK21"/>
+    <mergeCell ref="AL21:BF21"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:S25"/>
@@ -8034,50 +7915,20 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="AL20:BF20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="AL21:BF21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="AP13:BJ13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
-    <mergeCell ref="K49:AX49"/>
-    <mergeCell ref="K50:AX50"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="T10:AO10"/>
-    <mergeCell ref="AP10:BJ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="T11:AO11"/>
-    <mergeCell ref="AP11:BJ11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="AP12:BJ12"/>
-    <mergeCell ref="K44:N45"/>
-    <mergeCell ref="O44:AB45"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="AC44:AP45"/>
+    <mergeCell ref="AQ44:BD45"/>
+    <mergeCell ref="J34:CP34"/>
+    <mergeCell ref="AQ43:BD43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:AB43"/>
+    <mergeCell ref="K39:AX39"/>
+    <mergeCell ref="K40:AX40"/>
+    <mergeCell ref="AC43:AP43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/docs/pg0001/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0001/アプリケーション詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304177-89EF-4A1A-9088-6966AA3C0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40DB77-E864-434E-A8D2-B539500E4660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -283,37 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．戻り値</t>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.ローカル変数</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>制御マーク</t>
     <rPh sb="0" eb="2">
       <t>セイギョ</t>
@@ -544,6 +513,20 @@
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ローカル変数</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.処理</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1104,7 +1087,7 @@
   <sheetData>
     <row r="3" spans="3:97" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1427,7 +1410,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2481,6 +2464,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2489,23 +2489,6 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,7 +2621,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2741,7 +2724,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2772,7 +2755,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
@@ -3046,7 +3029,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3132,7 +3115,7 @@
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3147,7 +3130,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -3891,48 +3874,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
-    <mergeCell ref="P6:AR6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="AO13:BE13"/>
-    <mergeCell ref="AO14:BE14"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="P7:AR7"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="AS5:CS9"/>
     <mergeCell ref="C8:O8"/>
@@ -3948,6 +3889,48 @@
     <mergeCell ref="P9:AR9"/>
     <mergeCell ref="X13:AN13"/>
     <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="P6:AR6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="AO13:BE13"/>
+    <mergeCell ref="AO14:BE14"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6045,16 +6028,108 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:AO6"/>
+    <mergeCell ref="AP6:BD6"/>
+    <mergeCell ref="BE6:BS6"/>
+    <mergeCell ref="CO19:DC19"/>
+    <mergeCell ref="CO20:DC20"/>
+    <mergeCell ref="CO21:DC21"/>
+    <mergeCell ref="CO22:DC22"/>
+    <mergeCell ref="BZ21:CN21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:T20"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="AP20:BJ20"/>
+    <mergeCell ref="BK20:BY20"/>
+    <mergeCell ref="BZ20:CN20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:T21"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="BK21:BY21"/>
+    <mergeCell ref="BZ19:CN19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
     <mergeCell ref="BE10:BS10"/>
     <mergeCell ref="BE11:BS11"/>
     <mergeCell ref="BE12:BS12"/>
@@ -6079,108 +6154,16 @@
     <mergeCell ref="F12:T12"/>
     <mergeCell ref="U12:AO12"/>
     <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:AO6"/>
-    <mergeCell ref="AP6:BD6"/>
-    <mergeCell ref="BE6:BS6"/>
-    <mergeCell ref="CO19:DC19"/>
-    <mergeCell ref="CO20:DC20"/>
-    <mergeCell ref="CO21:DC21"/>
-    <mergeCell ref="CO22:DC22"/>
-    <mergeCell ref="BZ21:CN21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:T20"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="BK20:BY20"/>
-    <mergeCell ref="BZ20:CN20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="AP21:BJ21"/>
-    <mergeCell ref="BK21:BY21"/>
-    <mergeCell ref="BZ19:CN19"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6189,10 +6172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP53"/>
+  <dimension ref="B2:CP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6216,7 +6199,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -6269,7 +6252,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -6322,7 +6305,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -6666,19 +6649,21 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
     </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -6688,13 +6673,13 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
+      <c r="T20" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
@@ -6712,13 +6697,13 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
-      <c r="AL20" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="AL20" s="10"/>
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
+      <c r="AP20" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
@@ -6735,8 +6720,12 @@
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
       <c r="BF20" s="10"/>
-    </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+    </row>
+    <row r="21" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -6794,274 +6783,209 @@
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
-    </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
-    </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-    </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+    </row>
+    <row r="22" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+    </row>
+    <row r="23" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+    </row>
+    <row r="24" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+    </row>
+    <row r="27" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -7069,262 +6993,311 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
+      <c r="J29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="15"/>
+      <c r="CF29" s="15"/>
+      <c r="CG29" s="15"/>
+      <c r="CH29" s="15"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="15"/>
+      <c r="CM29" s="15"/>
+      <c r="CN29" s="15"/>
+      <c r="CO29" s="15"/>
+      <c r="CP29" s="15"/>
+    </row>
+    <row r="30" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="3"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="4"/>
+    </row>
+    <row r="31" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="CP31" s="5"/>
+    </row>
+    <row r="32" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP32" s="5"/>
+    </row>
+    <row r="33" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1"/>
+      <c r="CP33" s="5"/>
     </row>
     <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="15"/>
-      <c r="AT34" s="15"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="15"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="15"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="15"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="15"/>
-      <c r="BO34" s="15"/>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="15"/>
-      <c r="BS34" s="15"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="15"/>
-      <c r="BV34" s="15"/>
-      <c r="BW34" s="15"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="15"/>
-      <c r="CA34" s="15"/>
-      <c r="CB34" s="15"/>
-      <c r="CC34" s="15"/>
-      <c r="CD34" s="15"/>
-      <c r="CE34" s="15"/>
-      <c r="CF34" s="15"/>
-      <c r="CG34" s="15"/>
-      <c r="CH34" s="15"/>
-      <c r="CI34" s="15"/>
-      <c r="CJ34" s="15"/>
-      <c r="CK34" s="15"/>
-      <c r="CL34" s="15"/>
-      <c r="CM34" s="15"/>
-      <c r="CN34" s="15"/>
-      <c r="CO34" s="15"/>
-      <c r="CP34" s="15"/>
+      <c r="B34" s="1"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="CP34" s="5"/>
     </row>
     <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="CP35" s="5"/>
     </row>
     <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>
@@ -7333,13 +7306,11 @@
       <c r="CP36" s="5"/>
     </row>
     <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="I37" s="5"/>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CP37" s="5"/>
     </row>
@@ -7347,19 +7318,75 @@
       <c r="B38" s="1"/>
       <c r="I38" s="5"/>
       <c r="J38" s="1"/>
+      <c r="K38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
       <c r="CP38" s="5"/>
     </row>
-    <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1"/>
       <c r="I39" s="5"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="10" t="s">
-        <v>49</v>
+      <c r="K39" s="10">
+        <v>1</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="O39" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -7373,7 +7400,9 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
+      <c r="AC39" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
@@ -7387,23 +7416,29 @@
       <c r="AN39" s="10"/>
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
+      <c r="AQ39" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="14"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
       <c r="CP39" s="5"/>
     </row>
-    <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -7435,14 +7470,20 @@
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7456,7 +7497,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CP42" s="5"/>
     </row>
@@ -7464,75 +7505,19 @@
       <c r="B43" s="1"/>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
-      <c r="AN43" s="10"/>
-      <c r="AO43" s="10"/>
-      <c r="AP43" s="10"/>
-      <c r="AQ43" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="10"/>
-      <c r="AV43" s="10"/>
-      <c r="AW43" s="10"/>
-      <c r="AX43" s="10"/>
-      <c r="AY43" s="10"/>
-      <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
       <c r="CP43" s="5"/>
     </row>
-    <row r="44" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1"/>
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="10">
-        <v>1</v>
+      <c r="K44" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -7546,9 +7531,7 @@
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
-      <c r="AC44" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
@@ -7562,29 +7545,23 @@
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
-      <c r="AQ44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="14"/>
-      <c r="BC44" s="14"/>
-      <c r="BD44" s="14"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
       <c r="CP44" s="5"/>
     </row>
-    <row r="45" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1"/>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -7616,20 +7593,14 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
-      <c r="AQ45" s="14"/>
-      <c r="AR45" s="14"/>
-      <c r="AS45" s="14"/>
-      <c r="AT45" s="14"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="14"/>
-      <c r="AW45" s="14"/>
-      <c r="AX45" s="14"/>
-      <c r="AY45" s="14"/>
-      <c r="AZ45" s="14"/>
-      <c r="BA45" s="14"/>
-      <c r="BB45" s="14"/>
-      <c r="BC45" s="14"/>
-      <c r="BD45" s="14"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7642,228 +7613,156 @@
       <c r="B47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
-      <c r="K47" t="s">
-        <v>52</v>
-      </c>
       <c r="CP47" s="5"/>
     </row>
     <row r="48" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="1"/>
-      <c r="CP48" s="5"/>
-    </row>
-    <row r="49" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="1"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="CP49" s="5"/>
-    </row>
-    <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="1"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="10"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="10"/>
-      <c r="CP50" s="5"/>
-    </row>
-    <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="1"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="1"/>
-      <c r="CP51" s="5"/>
-    </row>
-    <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="1"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="1"/>
-      <c r="CP52" s="5"/>
-    </row>
-    <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="7"/>
-      <c r="AP53" s="7"/>
-      <c r="AQ53" s="7"/>
-      <c r="AR53" s="7"/>
-      <c r="AS53" s="7"/>
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="7"/>
-      <c r="AV53" s="7"/>
-      <c r="AW53" s="7"/>
-      <c r="AX53" s="7"/>
-      <c r="AY53" s="7"/>
-      <c r="AZ53" s="7"/>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
-      <c r="BC53" s="7"/>
-      <c r="BD53" s="7"/>
-      <c r="BE53" s="7"/>
-      <c r="BF53" s="7"/>
-      <c r="BG53" s="7"/>
-      <c r="BH53" s="7"/>
-      <c r="BI53" s="7"/>
-      <c r="BJ53" s="7"/>
-      <c r="BK53" s="7"/>
-      <c r="BL53" s="7"/>
-      <c r="BM53" s="7"/>
-      <c r="BN53" s="7"/>
-      <c r="BO53" s="7"/>
-      <c r="BP53" s="7"/>
-      <c r="BQ53" s="7"/>
-      <c r="BR53" s="7"/>
-      <c r="BS53" s="7"/>
-      <c r="BT53" s="7"/>
-      <c r="BU53" s="7"/>
-      <c r="BV53" s="7"/>
-      <c r="BW53" s="7"/>
-      <c r="BX53" s="7"/>
-      <c r="BY53" s="7"/>
-      <c r="BZ53" s="7"/>
-      <c r="CA53" s="7"/>
-      <c r="CB53" s="7"/>
-      <c r="CC53" s="7"/>
-      <c r="CD53" s="7"/>
-      <c r="CE53" s="7"/>
-      <c r="CF53" s="7"/>
-      <c r="CG53" s="7"/>
-      <c r="CH53" s="7"/>
-      <c r="CI53" s="7"/>
-      <c r="CJ53" s="7"/>
-      <c r="CK53" s="7"/>
-      <c r="CL53" s="7"/>
-      <c r="CM53" s="7"/>
-      <c r="CN53" s="7"/>
-      <c r="CO53" s="7"/>
-      <c r="CP53" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="7"/>
+      <c r="BI48" s="7"/>
+      <c r="BJ48" s="7"/>
+      <c r="BK48" s="7"/>
+      <c r="BL48" s="7"/>
+      <c r="BM48" s="7"/>
+      <c r="BN48" s="7"/>
+      <c r="BO48" s="7"/>
+      <c r="BP48" s="7"/>
+      <c r="BQ48" s="7"/>
+      <c r="BR48" s="7"/>
+      <c r="BS48" s="7"/>
+      <c r="BT48" s="7"/>
+      <c r="BU48" s="7"/>
+      <c r="BV48" s="7"/>
+      <c r="BW48" s="7"/>
+      <c r="BX48" s="7"/>
+      <c r="BY48" s="7"/>
+      <c r="BZ48" s="7"/>
+      <c r="CA48" s="7"/>
+      <c r="CB48" s="7"/>
+      <c r="CC48" s="7"/>
+      <c r="CD48" s="7"/>
+      <c r="CE48" s="7"/>
+      <c r="CF48" s="7"/>
+      <c r="CG48" s="7"/>
+      <c r="CH48" s="7"/>
+      <c r="CI48" s="7"/>
+      <c r="CJ48" s="7"/>
+      <c r="CK48" s="7"/>
+      <c r="CL48" s="7"/>
+      <c r="CM48" s="7"/>
+      <c r="CN48" s="7"/>
+      <c r="CO48" s="7"/>
+      <c r="CP48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="K49:AX49"/>
-    <mergeCell ref="K50:AX50"/>
+  <mergeCells count="61">
+    <mergeCell ref="AC39:AP40"/>
+    <mergeCell ref="AQ39:BD40"/>
+    <mergeCell ref="J29:CP29"/>
+    <mergeCell ref="AQ38:BD38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:AB38"/>
+    <mergeCell ref="K34:AX34"/>
+    <mergeCell ref="K35:AX35"/>
+    <mergeCell ref="AC38:AP38"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="T23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="T24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:AO20"/>
+    <mergeCell ref="AP20:BJ20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="T21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="T22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="K44:AX44"/>
+    <mergeCell ref="K45:AX45"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:S10"/>
     <mergeCell ref="T10:AO10"/>
@@ -7873,62 +7772,11 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:S12"/>
     <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="K44:N45"/>
-    <mergeCell ref="O44:AB45"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="K39:N40"/>
+    <mergeCell ref="O39:AB40"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:S13"/>
     <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="AL20:BF20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="AL21:BF21"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="T25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="T26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="AC44:AP45"/>
-    <mergeCell ref="AQ44:BD45"/>
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AQ43:BD43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:AB43"/>
-    <mergeCell ref="K39:AX39"/>
-    <mergeCell ref="K40:AX40"/>
-    <mergeCell ref="AC43:AP43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
